--- a/outputs/c/_mushrooms_both.xlsx
+++ b/outputs/c/_mushrooms_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -405,13 +402,19 @@
     <t>duxelles</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>crush</t>
   </si>
   <si>
     <t>regular</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="A5:P5"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,23 +789,23 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>0</v>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>2</v>
@@ -829,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -840,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>38</v>
@@ -852,23 +855,23 @@
         <v>412</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -881,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -896,13 +899,13 @@
         <v>370</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>54</v>
@@ -925,21 +928,21 @@
         <v>490</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -952,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -967,13 +970,13 @@
         <v>90</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="Z3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>52</v>
@@ -996,21 +999,21 @@
         <v>738</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1023,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1038,13 +1041,13 @@
         <v>128</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="Z4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>124</v>
@@ -1067,21 +1070,21 @@
         <v>1670</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1094,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1109,13 +1112,13 @@
         <v>1670</v>
       </c>
       <c r="X5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="Z5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1126,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>254</v>
@@ -1138,21 +1141,21 @@
         <v>1218</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1165,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1180,13 +1183,13 @@
         <v>176</v>
       </c>
       <c r="X6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="Z6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <v>112</v>
@@ -1209,23 +1212,23 @@
         <v>1636</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1238,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1253,13 +1256,13 @@
         <v>782</v>
       </c>
       <c r="X7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="Z7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1270,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>36</v>
@@ -1282,21 +1285,21 @@
         <v>794</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1309,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1324,13 +1327,13 @@
         <v>794</v>
       </c>
       <c r="X8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Z8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>61</v>
@@ -1353,21 +1356,21 @@
         <v>736</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1380,10 +1383,10 @@
         <v>10</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U9" s="2">
         <v>24</v>
@@ -1395,13 +1398,13 @@
         <v>202</v>
       </c>
       <c r="X9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Z9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1412,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3">
         <v>80</v>
@@ -1424,21 +1427,21 @@
         <v>1044</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1451,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
@@ -1466,13 +1469,13 @@
         <v>396</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1489,15 +1492,15 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1519,25 +1522,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="2"/>
       <c r="Q12" s="2">
@@ -1547,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T12" s="2">
         <v>2</v>
@@ -1562,13 +1565,13 @@
         <v>356</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>31</v>
@@ -1591,10 +1594,10 @@
         <v>370</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1605,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>34</v>
@@ -1617,10 +1620,10 @@
         <v>384</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>44</v>
@@ -1643,10 +1646,10 @@
         <v>456</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1657,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>51</v>
@@ -1669,10 +1672,10 @@
         <v>482</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1683,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
@@ -1695,10 +1698,10 @@
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>49</v>
@@ -1721,10 +1724,10 @@
         <v>408</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>136</v>
@@ -1747,10 +1750,10 @@
         <v>1070</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>12</v>
@@ -1773,10 +1776,10 @@
         <v>128</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>30</v>
@@ -1799,10 +1802,10 @@
         <v>354</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1813,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>32</v>
@@ -1825,10 +1828,10 @@
         <v>468</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1839,7 +1842,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>44</v>
@@ -1851,10 +1854,10 @@
         <v>522</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>48</v>
@@ -1877,10 +1880,10 @@
         <v>550</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>130</v>
@@ -1903,10 +1906,10 @@
         <v>1466</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1917,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>161</v>
@@ -1929,10 +1932,10 @@
         <v>1742</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>178</v>
@@ -1955,10 +1958,10 @@
         <v>1914</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1969,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>160</v>
@@ -1981,10 +1984,10 @@
         <v>1804</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>260</v>
@@ -2007,10 +2010,10 @@
         <v>2906</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2021,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>23</v>
@@ -2033,10 +2036,10 @@
         <v>176</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>27</v>
@@ -2059,10 +2062,10 @@
         <v>196</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>71</v>
@@ -2085,10 +2088,10 @@
         <v>340</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2102,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>112</v>
@@ -2111,10 +2114,10 @@
         <v>616</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>286</v>
@@ -2137,10 +2140,10 @@
         <v>1324</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2151,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>395</v>
@@ -2163,10 +2166,10 @@
         <v>2072</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2177,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1">
         <v>32</v>
@@ -2189,10 +2192,10 @@
         <v>782</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1">
         <v>50</v>
@@ -2215,10 +2218,10 @@
         <v>1040</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1">
         <v>58</v>
@@ -2241,10 +2244,10 @@
         <v>1078</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1">
         <v>78</v>
@@ -2267,10 +2270,10 @@
         <v>1226</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2281,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="1">
         <v>83</v>
@@ -2293,10 +2296,10 @@
         <v>1280</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2307,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1">
         <v>119</v>
@@ -2319,10 +2322,10 @@
         <v>1726</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2333,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1">
         <v>165</v>
@@ -2345,10 +2348,10 @@
         <v>2170</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2359,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1">
         <v>24</v>
@@ -2371,10 +2374,10 @@
         <v>202</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2385,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1">
         <v>33</v>
@@ -2397,10 +2400,10 @@
         <v>300</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2411,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1">
         <v>35</v>
@@ -2423,10 +2426,10 @@
         <v>350</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2437,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1">
         <v>38</v>
@@ -2449,10 +2452,10 @@
         <v>396</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2463,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1">
         <v>39</v>
@@ -2475,10 +2478,10 @@
         <v>356</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2489,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="1">
         <v>45</v>
@@ -2501,10 +2504,10 @@
         <v>580</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2515,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -2527,10 +2530,10 @@
         <v>622</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2541,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1">
         <v>51</v>
@@ -2553,10 +2556,10 @@
         <v>646</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2567,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1">
         <v>65</v>
@@ -2579,10 +2582,10 @@
         <v>862</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2593,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="1">
         <v>69</v>
@@ -2605,10 +2608,10 @@
         <v>1006</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
